--- a/Input/urbs_intertemporal_2050/2027.xlsx
+++ b/Input/urbs_intertemporal_2050/2027.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbs-test\urbs\Input\urbs_intertemporal_2050\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbsextension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8EE06C-6C31-428D-8A88-E222F4D136E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7CD01C-D023-45DB-A402-148D44369FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -532,16 +532,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <top style="thin">
@@ -908,10 +899,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,11 +949,165 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:C2" xr:uid="{75ACDA94-C935-41EF-9B94-6AC2D2A4C83A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Hydro" prompt="Normalized capacity factor (maximum value 1) of hydro power. Determines EPrIn of processes with input commodity Hydro." sqref="C1" xr:uid="{B8280B3F-6067-47E6-9732-17112E98D3A8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Wind" prompt="Normalized capacity factor (maximum value 1) of wind power. Determines EPrIn of processes with input commodity Wind." sqref="B1" xr:uid="{4DB6350A-B438-481E-A5A8-FAD1A569C863}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:C2" xr:uid="{63ABC4B8-86A6-453F-9591-36213ED57989}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Hydro" prompt="Normalized capacity factor (maximum value 1) of hydro power. Determines EPrIn of processes with input commodity Hydro." sqref="C1" xr:uid="{34063726-0D5B-478D-8193-CE3EDB403AD3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Wind" prompt="Normalized capacity factor (maximum value 1) of wind power. Determines EPrIn of processes with input commodity Wind." sqref="B1" xr:uid="{3481EB06-C2F9-44E7-833E-2A38D4EE5A79}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1248,7 +1393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1761,13 +1906,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A12:C13 A11 C11">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A11:C13">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2291,7 +2431,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A24:E32">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2665,13 +2805,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2694,7 +2837,95 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3060687500</v>
+        <v>255057292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>255057292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>255057292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>255057292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>255057292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>255057292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>255057292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>255057292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>255057292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>255057292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>255057292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>255057292</v>
       </c>
     </row>
   </sheetData>

--- a/Input/urbs_intertemporal_2050/2027.xlsx
+++ b/Input/urbs_intertemporal_2050/2027.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbsextension\Input\urbs_intertemporal_2050\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\result\urbs-20250603T1601\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7CD01C-D023-45DB-A402-148D44369FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1502DE-D165-4B34-BB44-A03D65CAA401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -341,15 +341,25 @@
   </si>
   <si>
     <t>Gas Plant (CCGT) CCUS</t>
+  </si>
+  <si>
+    <t>Piped Gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNG </t>
+  </si>
+  <si>
+    <t>Gas Plant (CCGT) LNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -381,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +437,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -528,11 +550,92 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -857,9 +960,9 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,7 +973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -881,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -905,9 +1008,9 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -921,7 +1024,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -935,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -949,7 +1052,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -963,7 +1066,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -977,7 +1080,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -991,7 +1094,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1005,7 +1108,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1019,7 +1122,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1033,7 +1136,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1047,7 +1150,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1061,7 +1164,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1075,7 +1178,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1089,7 +1192,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1119,9 +1222,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -1143,9 +1246,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -1167,9 +1270,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +1280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1192,214 +1295,292 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F2" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D5" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
-      </c>
-      <c r="E6" t="s">
+        <v>8.64</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D7">
-        <v>1.75</v>
-      </c>
-      <c r="E7" t="s">
+        <v>22.68</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D8">
         <v>65</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D9">
-        <v>5.2</v>
-      </c>
-      <c r="E9" t="s">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D10">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="E10" t="s">
+        <v>6.12</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
-      </c>
-      <c r="E11" t="s">
+        <v>6.48</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="26" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>23.62</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B10:B12">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Maximum commodity use per hour" prompt="For stock commodities, this value limits the energy use per hour (MW)._x000a_" sqref="F1" xr:uid="{62CF5082-FE1C-4507-8596-59F4AE21BF93}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Maximum commodity use" prompt="For stock commodities, this value limits annual use (MWh) of this commodity. For CO2, this value limits the amount of emissions (t_CO2). If simulation timespan does not cover a full year, the sums are multiplied accordingly before (cf. 'weight' in urbs)." sqref="E1" xr:uid="{59A6C8A7-B0E0-4D4C-8A84-94BE2C14734C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Commodity price (€/MWh)" prompt="Cost for purchasing one unit (MWh) of a stock or buy commodity. Revenue for selling one unit (MWh) of a sell commodity. Cost for creating one unit of environmental commodity._x000a__x000a_Multiplier for sheet &quot;Buy-Sell-Price&quot; for commodity types &quot;Buy&quot; and &quot;Sell&quot;._x000a_" sqref="D1" xr:uid="{F64F898E-FC56-47FD-9937-FCD337DA42E5}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1440,7 +1621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1478,7 +1659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1516,7 +1697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1554,7 +1735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1592,7 +1773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1630,7 +1811,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1668,7 +1849,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1706,7 +1887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1744,7 +1925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1782,7 +1963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
@@ -1823,7 +2004,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
@@ -1864,7 +2045,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
@@ -1905,9 +2086,70 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="14" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="22">
+        <v>999999</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="27">
+        <v>802808.92800000007</v>
+      </c>
+      <c r="H14" s="27">
+        <v>16725.186000000002</v>
+      </c>
+      <c r="I14" s="17">
+        <v>2.6</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L14" s="17">
+        <v>25</v>
+      </c>
+      <c r="M14" s="20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A11:C13">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:XFD14">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1917,15 +2159,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:E32"/>
+      <selection activeCell="A33" sqref="A33:E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1942,7 +2184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1956,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1970,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1984,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1998,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2015,7 +2257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2029,7 +2271,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2046,7 +2288,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2063,7 +2305,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2077,7 +2319,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2094,7 +2336,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2108,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2122,7 +2364,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -2136,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -2150,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2164,7 +2406,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2181,7 +2423,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2195,7 +2437,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2212,7 +2454,7 @@
         <v>0.47851999999999989</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2226,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2240,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2254,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2268,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>96</v>
       </c>
@@ -2286,7 +2528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>96</v>
       </c>
@@ -2304,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>96</v>
       </c>
@@ -2322,7 +2564,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>97</v>
       </c>
@@ -2340,7 +2582,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>97</v>
       </c>
@@ -2358,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>97</v>
       </c>
@@ -2376,7 +2618,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>98</v>
       </c>
@@ -2393,7 +2635,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>98</v>
       </c>
@@ -2411,7 +2653,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>98</v>
       </c>
@@ -2429,21 +2671,74 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="E34" s="11" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E35" s="11">
+        <f>D35*E33</f>
+        <v>0.24599999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A24:E32">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E32">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -2451,7 +2746,115 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A33 E34:E35 C33:E33 A34:C35">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D35">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D35">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A147A161-5126-4533-81E4-38854BA6C2E3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:E33 E34:E35">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FEE5329F-1992-45B6-B6BE-47AF34A64825}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D35">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E6AD2F9-A221-437D-B1B8-830AD379E566}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A147A161-5126-4533-81E4-38854BA6C2E3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D34:D35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FEE5329F-1992-45B6-B6BE-47AF34A64825}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33:E33 E34:E35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E6AD2F9-A221-437D-B1B8-830AD379E566}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33:D35</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2461,9 +2864,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -2521,9 +2924,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2585,7 +2988,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2644,7 +3047,7 @@
         <v>3.4999999999999999E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2703,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2773,9 +3176,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2807,16 +3210,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -2824,7 +3227,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2832,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2840,7 +3243,7 @@
         <v>255057292</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2848,7 +3251,7 @@
         <v>255057292</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2856,7 +3259,7 @@
         <v>255057292</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2864,7 +3267,7 @@
         <v>255057292</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2872,7 +3275,7 @@
         <v>255057292</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2880,7 +3283,7 @@
         <v>255057292</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2888,7 +3291,7 @@
         <v>255057292</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2896,7 +3299,7 @@
         <v>255057292</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2904,7 +3307,7 @@
         <v>255057292</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2912,7 +3315,7 @@
         <v>255057292</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2920,7 +3323,7 @@
         <v>255057292</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>

--- a/Input/urbs_intertemporal_2050/2027.xlsx
+++ b/Input/urbs_intertemporal_2050/2027.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\result\urbs-20250603T1601\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1502DE-D165-4B34-BB44-A03D65CAA401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D1B13C-0909-4DF6-95B4-325BD1E3BDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
   <si>
     <t>Property</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>inf</t>
-  </si>
-  <si>
-    <t>Gas</t>
   </si>
   <si>
     <t>CO2</t>
@@ -563,43 +560,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <border>
         <top style="thin">
@@ -1012,16 +973,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1226,13 +1187,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1250,13 +1211,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1401,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>23</v>
@@ -1460,10 +1421,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="D8">
         <v>65</v>
@@ -1480,7 +1441,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>23</v>
@@ -1500,7 +1461,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>23</v>
@@ -1520,7 +1481,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>23</v>
@@ -1540,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>23</v>
@@ -1557,7 +1518,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1574,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
@@ -1585,40 +1546,40 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1626,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1664,7 +1625,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1702,7 +1663,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1740,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1778,7 +1739,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1816,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1854,7 +1815,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1892,7 +1853,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1930,7 +1891,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1968,7 +1929,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="21">
         <v>0</v>
@@ -2009,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="21">
         <v>0</v>
@@ -2050,7 +2011,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="21">
         <v>0</v>
@@ -2091,7 +2052,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="21">
         <v>0</v>
@@ -2128,28 +2089,13 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:C13">
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="A11:C14">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:XFD14">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2161,38 +2107,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2200,13 +2146,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2214,13 +2160,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2228,13 +2174,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2242,13 +2188,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2259,13 +2205,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>0.41</v>
@@ -2273,13 +2219,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>0.36299999999999999</v>
@@ -2290,13 +2236,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2307,13 +2253,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>0.6</v>
@@ -2321,13 +2267,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>0.20499999999999999</v>
@@ -2338,13 +2284,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2352,13 +2298,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>0.35</v>
@@ -2366,13 +2312,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2380,13 +2326,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2394,13 +2340,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>0.38</v>
@@ -2408,13 +2354,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2425,13 +2371,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>0.45</v>
@@ -2439,13 +2385,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>0.34179999999999999</v>
@@ -2456,13 +2402,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2470,13 +2416,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2484,13 +2430,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2498,13 +2444,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2512,13 +2458,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="11">
         <v>1</v>
@@ -2530,13 +2476,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="11">
         <v>0.36</v>
@@ -2548,13 +2494,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="11">
         <v>3.4180000000000002E-2</v>
@@ -2566,13 +2512,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="11">
         <v>1</v>
@@ -2584,13 +2530,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="11">
         <v>0.32</v>
@@ -2602,13 +2548,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="11">
         <v>3.6299999999999999E-2</v>
@@ -2620,13 +2566,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="C30" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="11">
         <v>1</v>
@@ -2637,13 +2583,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="11">
         <v>0.4</v>
@@ -2655,13 +2601,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="11">
         <v>2.0500000000000001E-2</v>
@@ -2673,13 +2619,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="11">
         <v>1</v>
@@ -2690,13 +2636,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="11">
         <v>0.6</v>
@@ -2708,13 +2654,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="11">
         <v>0.20499999999999999</v>
@@ -2725,9 +2671,45 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A24:E32">
-    <cfRule type="expression" dxfId="8" priority="7">
+  <conditionalFormatting sqref="A34:C35 E34:E35">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:E29 A31:E33 A30 C30:E30">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D35">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E6AD2F9-A221-437D-B1B8-830AD379E566}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D35">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A147A161-5126-4533-81E4-38854BA6C2E3}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E32">
@@ -2746,30 +2728,6 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33 E34:E35 C33:E33 A34:C35">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D35">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A147A161-5126-4533-81E4-38854BA6C2E3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D33:E33 E34:E35">
     <cfRule type="dataBar" priority="4">
       <dataBar>
@@ -2784,29 +2742,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9E6AD2F9-A221-437D-B1B8-830AD379E566}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E6AD2F9-A221-437D-B1B8-830AD379E566}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33:D35</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A147A161-5126-4533-81E4-38854BA6C2E3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -2837,21 +2791,6 @@
           </x14:cfRule>
           <xm:sqref>D33:E33 E34:E35</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9E6AD2F9-A221-437D-B1B8-830AD379E566}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D33:D35</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -2868,49 +2807,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2931,61 +2870,61 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -2993,7 +2932,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -3052,7 +2991,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -3111,7 +3050,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -3186,19 +3125,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3221,10 +3160,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Input/urbs_intertemporal_2050/2027.xlsx
+++ b/Input/urbs_intertemporal_2050/2027.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D1B13C-0909-4DF6-95B4-325BD1E3BDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0C2FC6-2B60-4CEA-AEE0-A0EA9368DFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="95">
   <si>
     <t>Property</t>
   </si>
@@ -94,15 +94,9 @@
     <t>maxperhour</t>
   </si>
   <si>
-    <t>WindOff</t>
-  </si>
-  <si>
     <t>SupIm</t>
   </si>
   <si>
-    <t>WindOn</t>
-  </si>
-  <si>
     <t>Hydro</t>
   </si>
   <si>
@@ -172,12 +166,6 @@
     <t>area-per-cap</t>
   </si>
   <si>
-    <t>Wind (onshore)</t>
-  </si>
-  <si>
-    <t>Wind (offshore)</t>
-  </si>
-  <si>
     <t>Hydro (run-of-river)</t>
   </si>
   <si>
@@ -308,12 +296,6 @@
   </si>
   <si>
     <t>EU27.Elec</t>
-  </si>
-  <si>
-    <t>EU27.WindOff</t>
-  </si>
-  <si>
-    <t>EU27.WindOn</t>
   </si>
   <si>
     <t>EU27.Hydro</t>
@@ -495,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -511,9 +493,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -963,216 +942,127 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C3">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B3" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C4">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="B4" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C6">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="B6" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C7">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="B7" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C8">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="B8" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C9">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C10">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="B10" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C11">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B11" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C12">
-        <v>0.3</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="B12" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C13">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="B13" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C14">
-        <v>0.3</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="B14" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:C2" xr:uid="{63ABC4B8-86A6-453F-9591-36213ED57989}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Hydro" prompt="Normalized capacity factor (maximum value 1) of hydro power. Determines EPrIn of processes with input commodity Hydro." sqref="C1" xr:uid="{34063726-0D5B-478D-8193-CE3EDB403AD3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Wind" prompt="Normalized capacity factor (maximum value 1) of wind power. Determines EPrIn of processes with input commodity Wind." sqref="B1" xr:uid="{3481EB06-C2F9-44E7-833E-2A38D4EE5A79}"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1187,13 +1077,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1211,13 +1101,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1256,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
+      <selection activeCell="B2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,250 +1164,204 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="20" t="e">
+      <c r="D2" s="19" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E2" s="20" t="e">
+      <c r="E2" s="19" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F2" s="20" t="e">
+      <c r="F2" s="19" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="20" t="e">
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="19" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E3" s="20" t="e">
+      <c r="E3" s="19" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F3" s="20" t="e">
+      <c r="F3" s="19" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="20" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="20" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F4" s="20" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>8.64</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="20" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E5" s="20" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" s="20" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="D5">
+        <v>22.68</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="D6">
-        <v>8.64</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>24</v>
+        <v>65</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>23</v>
+      <c r="B7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>22.68</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>24</v>
+        <v>67.680000000000007</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D8">
-        <v>65</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>24</v>
+        <v>6.12</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>23</v>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>67.680000000000007</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>24</v>
+        <v>6.48</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>23</v>
+      <c r="B10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>6.12</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>6.48</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12">
         <v>23.62</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>24</v>
+      <c r="E10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B10:B12">
+  <conditionalFormatting sqref="B8:B10">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
@@ -1533,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="C2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1546,40 +1390,40 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1587,25 +1431,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="8">
-        <v>379885</v>
+      <c r="D2">
+        <v>46710</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1187151.4952</v>
+        <v>2731780.38</v>
       </c>
       <c r="H2">
-        <v>14639.04184</v>
+        <v>9923.6103600000006</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1617,7 +1461,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L2">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1625,28 +1469,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
-        <v>240293.44961681674</v>
+      <c r="D3">
+        <v>59840</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2204404.6216000002</v>
+        <v>3345037.2</v>
       </c>
       <c r="H3">
-        <v>41352.62184</v>
+        <v>28432.799999999999</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1655,7 +1499,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1663,28 +1507,28 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>46710</v>
+      <c r="D4" s="21">
+        <v>999999</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2731780.38</v>
+        <v>1784013.3448000001</v>
       </c>
       <c r="H4">
-        <v>9923.6103600000006</v>
+        <v>28544.213516799999</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1693,7 +1537,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L4">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1701,28 +1545,28 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>59840</v>
+      <c r="D5" s="21">
+        <v>999999</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="G5">
-        <v>3345037.2</v>
+        <v>2230016.6809999999</v>
       </c>
       <c r="H5">
-        <v>28432.799999999999</v>
+        <v>52182.390330800001</v>
       </c>
       <c r="I5">
-        <v>0.35699999999999998</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1731,7 +1575,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1739,28 +1583,28 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>999999</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G6">
-        <v>1784013.3448000001</v>
+        <v>802808.92800000007</v>
       </c>
       <c r="H6">
-        <v>28544.213516799999</v>
+        <v>16725.186000000002</v>
       </c>
       <c r="I6">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1769,7 +1613,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1777,28 +1621,28 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="22">
-        <v>999999</v>
+      <c r="D7">
+        <v>94200</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>2230016.6809999999</v>
+        <v>5909565.7200000007</v>
       </c>
       <c r="H7">
-        <v>52182.390330800001</v>
+        <v>133801.48800000001</v>
       </c>
       <c r="I7">
-        <v>4.5999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1807,7 +1651,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1815,28 +1659,28 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="22">
-        <v>999999</v>
+      <c r="D8">
+        <v>999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>802808.92800000007</v>
+        <v>5648000</v>
       </c>
       <c r="H8">
-        <v>16725.186000000002</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2.6</v>
+        <v>44.2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1848,253 +1692,177 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>94200</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>5909565.7200000007</v>
-      </c>
-      <c r="H9">
-        <v>133801.48800000001</v>
-      </c>
-      <c r="I9">
-        <v>7.1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="B9" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="16">
+        <v>3791028.3572399998</v>
+      </c>
+      <c r="H9" s="16">
+        <v>84183.129702000006</v>
+      </c>
+      <c r="I9" s="16">
+        <v>6.75</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="L9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="L9" s="16">
+        <v>40</v>
+      </c>
+      <c r="M9" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>999999999999</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>5648000</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>44.2</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="B10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="G10" s="16">
+        <v>4014030.0248799999</v>
+      </c>
+      <c r="H10" s="16">
+        <v>76489.572146799997</v>
+      </c>
+      <c r="I10" s="16">
+        <v>6.96</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="16">
+        <v>40</v>
+      </c>
+      <c r="M10" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1951271.6999999997</v>
+      </c>
+      <c r="H11" s="16">
+        <v>45715.5</v>
+      </c>
+      <c r="I11" s="16">
+        <v>3.46</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L11" s="16">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="M11" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="21">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="17">
-        <v>3791028.3572399998</v>
-      </c>
-      <c r="H11" s="17">
-        <v>84183.129702000006</v>
-      </c>
-      <c r="I11" s="17">
-        <v>6.75</v>
-      </c>
-      <c r="J11" s="18">
-        <v>0</v>
-      </c>
-      <c r="K11" s="19">
+      <c r="B12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <v>999999</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="26">
+        <v>802808.92800000007</v>
+      </c>
+      <c r="H12" s="26">
+        <v>16725.186000000002</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="L11" s="17">
-        <v>40</v>
-      </c>
-      <c r="M11" s="20" t="e">
+      <c r="L12" s="16">
+        <v>25</v>
+      </c>
+      <c r="M12" s="19" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="21">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0.65</v>
-      </c>
-      <c r="G12" s="17">
-        <v>4014030.0248799999</v>
-      </c>
-      <c r="H12" s="17">
-        <v>76489.572146799997</v>
-      </c>
-      <c r="I12" s="17">
-        <v>6.96</v>
-      </c>
-      <c r="J12" s="18">
-        <v>0</v>
-      </c>
-      <c r="K12" s="19">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="L12" s="17">
-        <v>40</v>
-      </c>
-      <c r="M12" s="20" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="G13" s="17">
-        <v>1951271.6999999997</v>
-      </c>
-      <c r="H13" s="17">
-        <v>45715.5</v>
-      </c>
-      <c r="I13" s="17">
-        <v>3.46</v>
-      </c>
-      <c r="J13" s="18">
-        <v>0</v>
-      </c>
-      <c r="K13" s="19">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="L13" s="17">
-        <v>25</v>
-      </c>
-      <c r="M13" s="20" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0</v>
-      </c>
-      <c r="D14" s="22">
-        <v>999999</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="G14" s="27">
-        <v>802808.92800000007</v>
-      </c>
-      <c r="H14" s="27">
-        <v>16725.186000000002</v>
-      </c>
-      <c r="I14" s="17">
-        <v>2.6</v>
-      </c>
-      <c r="J14" s="18">
-        <v>0</v>
-      </c>
-      <c r="K14" s="19">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="L14" s="17">
-        <v>25</v>
-      </c>
-      <c r="M14" s="20" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:C14">
+  <conditionalFormatting sqref="A9:C12">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:XFD14">
+  <conditionalFormatting sqref="N12:XFD12">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
@@ -2105,57 +1873,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2163,525 +1934,466 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>0.41</v>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.246</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="E8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>98</v>
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1.2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="E11">
-        <v>0.246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
       <c r="D13">
-        <v>0.35</v>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1.4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.47851999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>0.38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>1.4</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>0.34179999999999999</v>
-      </c>
-      <c r="E19">
-        <v>0.47851999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20">
+      <c r="A20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="11">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11" t="e">
+      <c r="E20" s="10" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="11">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="10">
         <v>0.36</v>
       </c>
-      <c r="E25" s="11">
-        <f>D25*E23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="E21" s="10">
+        <f>D21*E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="10">
         <v>3.4180000000000002E-2</v>
       </c>
-      <c r="E26" s="11" t="e">
-        <f>D26*E24</f>
+      <c r="E22" s="10" t="e">
+        <f>D22*E20</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="11">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="10">
         <v>1</v>
       </c>
-      <c r="E27" s="11" t="e">
+      <c r="E23" s="10" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="11">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="10">
         <v>0.32</v>
       </c>
-      <c r="E28" s="11">
-        <f>D28*E25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="11">
+      <c r="E24" s="10">
+        <f>D24*E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="10">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="E29" s="11" t="e">
-        <f>D29*E27</f>
+      <c r="E25" s="10" t="e">
+        <f>D25*E23</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="11">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="10">
         <v>1</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E26" s="10">
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="11">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="10">
         <v>0.4</v>
       </c>
-      <c r="E31" s="11" t="e">
+      <c r="E27" s="10" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="11">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="10">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="E32" s="11" t="e">
+      <c r="E28" s="10" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="11">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="10">
         <v>1</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E29" s="10">
         <v>1.2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="11">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="10">
         <v>0.6</v>
       </c>
-      <c r="E34" s="11" t="e">
+      <c r="E30" s="10" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="11">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="10">
         <v>0.20499999999999999</v>
       </c>
-      <c r="E35" s="11">
-        <f>D35*E33</f>
+      <c r="E31" s="10">
+        <f>D31*E29</f>
         <v>0.24599999999999997</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A34:C35 E34:E35">
+  <conditionalFormatting sqref="A30:C31 E30:E31">
     <cfRule type="expression" dxfId="2" priority="6">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:E29 A31:E33 A30 C30:E30">
+  <conditionalFormatting sqref="A20:E25 A26 C26:E26 A27:E29">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
+  <conditionalFormatting sqref="D29:D31">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
@@ -2698,7 +2410,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D35">
+  <conditionalFormatting sqref="D30:D31">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2712,7 +2424,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E32">
+  <conditionalFormatting sqref="D20:E28">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2728,7 +2440,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:E33 E34:E35">
+  <conditionalFormatting sqref="D29:E29 E30:E31">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2759,7 +2471,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33:D35</xm:sqref>
+          <xm:sqref>D29:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A147A161-5126-4533-81E4-38854BA6C2E3}">
@@ -2774,7 +2486,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D34:D35</xm:sqref>
+          <xm:sqref>D30:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FEE5329F-1992-45B6-B6BE-47AF34A64825}">
@@ -2789,7 +2501,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33:E33 E34:E35</xm:sqref>
+          <xm:sqref>D29:E29 E30:E31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2807,49 +2519,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2870,61 +2582,61 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -2932,22 +2644,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>0.69</v>
@@ -2991,22 +2703,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>0.9</v>
@@ -3050,22 +2762,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>0.86</v>
@@ -3125,19 +2837,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3160,10 +2872,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
